--- a/gazdasag/2019/export2.xlsx
+++ b/gazdasag/2019/export2.xlsx
@@ -250,7 +250,7 @@
     <t>CLINI LAB</t>
   </si>
   <si>
-    <t>COATS ROMANIA</t>
+    <t>COATS</t>
   </si>
   <si>
     <t>COLOR METAL</t>
@@ -340,10 +340,10 @@
     <t>DARINA COM</t>
   </si>
   <si>
-    <t>DAW BENTA ROMANIA</t>
+    <t>DAW BENTA</t>
   </si>
   <si>
-    <t>DDCA ROMANIA</t>
+    <t>DDCA</t>
   </si>
   <si>
     <t>DEATEX</t>
@@ -379,7 +379,7 @@
     <t>DOMINIC OIL</t>
   </si>
   <si>
-    <t>DOMO WELLNESS ROMANIA</t>
+    <t>DOMO WELLNESS</t>
   </si>
   <si>
     <t>DORTOPFOREST</t>
@@ -400,7 +400,7 @@
     <t>DYNAMIC</t>
   </si>
   <si>
-    <t>E.ON ENERGIE ROMANIA</t>
+    <t>E.ON ENERGIE</t>
   </si>
   <si>
     <t>E.ON GAZ FURNIZARE</t>
@@ -526,7 +526,7 @@
     <t>GEDEON RICHTER FARMACIA</t>
   </si>
   <si>
-    <t>GEDEON RICHTER ROMANIA</t>
+    <t>GEDEON RICHTER</t>
   </si>
   <si>
     <t>GEIGER TRANSILVANIA</t>
@@ -616,7 +616,7 @@
     <t>HELL ENERGY</t>
   </si>
   <si>
-    <t>HIRSCHMANN ROMANIA</t>
+    <t>HIRSCHMANN</t>
   </si>
   <si>
     <t>HOME LAND FACTORY</t>
@@ -703,7 +703,7 @@
     <t>JAMARO</t>
   </si>
   <si>
-    <t>JULIUS MEINL ROMANIA</t>
+    <t>JULIUS MEINL</t>
   </si>
   <si>
     <t>JUSTICE SECURITY SERVICES</t>
@@ -907,7 +907,7 @@
     <t>OREX IMPORT EXPORT</t>
   </si>
   <si>
-    <t>ORTOPROFIL PROD ROMANIA</t>
+    <t>ORTOPROFIL PROD</t>
   </si>
   <si>
     <t>OZR FRUIT</t>
@@ -916,7 +916,7 @@
     <t>P &amp; P MIXT</t>
   </si>
   <si>
-    <t>PACCOR ROMANIA</t>
+    <t>PACCOR</t>
   </si>
   <si>
     <t>PALAS COM</t>
@@ -1024,7 +1024,7 @@
     <t>RDE HURON</t>
   </si>
   <si>
-    <t>READY GARMENT TECHNOLOGY ROMANIA</t>
+    <t>READY GARMENT TECHNOLOGY</t>
   </si>
   <si>
     <t>REEA</t>
@@ -1282,7 +1282,7 @@
     <t>VIKING</t>
   </si>
   <si>
-    <t>WABERER S ROMANIA</t>
+    <t>WABERER S</t>
   </si>
   <si>
     <t>WALOR RO</t>
